--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL375_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL375_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL375\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="4152" windowWidth="23352" windowHeight="9672" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="4740" yWindow="4155" windowWidth="23355" windowHeight="9675" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>N00150</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +365,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -816,19 +828,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
@@ -866,7 +878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -912,18 +924,18 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" s="25"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
@@ -942,21 +954,21 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -982,7 +994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1018,7 +1030,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1054,7 +1066,7 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1090,7 +1102,7 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1126,7 +1138,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12"/>
@@ -1146,7 +1158,7 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
@@ -1177,7 +1189,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1220,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1251,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1270,7 +1282,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -1285,7 +1297,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1324,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -1327,7 +1339,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -1354,7 +1366,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1369,7 +1381,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -1388,15 +1400,19 @@
       <c r="F16" s="16">
         <v>50155</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="29">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1411,7 +1427,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -1436,7 +1452,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL375_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL375_00001.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Mooring Serial Number</t>
   </si>
   <si>
-    <t>CP05MOAS-GL003</t>
-  </si>
-  <si>
     <t>Anchor Launch Date</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL375</t>
+  </si>
+  <si>
+    <t>OL000352</t>
   </si>
 </sst>
 </file>
@@ -825,13 +828,13 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="9" width="17.7109375" customWidth="1"/>
@@ -842,7 +845,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>0</v>
@@ -854,10 +857,10 @@
         <v>11</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>2</v>
@@ -880,10 +883,10 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6">
         <v>375</v>
@@ -901,10 +904,10 @@
         <v>42048</v>
       </c>
       <c r="H2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="24">
         <v>1000</v>
@@ -913,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="21">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
@@ -954,7 +957,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>21</v>
@@ -982,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>8</v>
@@ -996,10 +999,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="12">
         <v>375</v>
@@ -1008,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="16">
         <v>649015</v>
@@ -1032,10 +1035,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12">
         <v>375</v>
@@ -1044,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="16">
         <v>649015</v>
@@ -1068,10 +1071,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="12">
         <v>375</v>
@@ -1080,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="16">
         <v>649015</v>
@@ -1104,10 +1107,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="12">
         <v>375</v>
@@ -1116,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="16">
         <v>649015</v>
@@ -1160,10 +1163,10 @@
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12">
         <v>375</v>
@@ -1172,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="16">
         <v>2817</v>
@@ -1191,10 +1194,10 @@
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12">
         <v>375</v>
@@ -1203,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="16">
         <v>2817</v>
@@ -1222,10 +1225,10 @@
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="12">
         <v>375</v>
@@ -1234,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="16">
         <v>2817</v>
@@ -1253,10 +1256,10 @@
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12">
         <v>375</v>
@@ -1265,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="16">
         <v>2817</v>
@@ -1299,10 +1302,10 @@
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12">
         <v>375</v>
@@ -1311,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="16">
         <v>9081</v>
@@ -1341,10 +1344,10 @@
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12">
         <v>375</v>
@@ -1353,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="16">
         <v>171</v>
@@ -1383,10 +1386,10 @@
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="12">
         <v>375</v>
@@ -1395,13 +1398,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="16">
         <v>50155</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="29">
         <v>9.9999999999999995E-7</v>
@@ -1429,10 +1432,10 @@
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12">
         <v>375</v>
@@ -1440,7 +1443,9 @@
       <c r="D18" s="12">
         <v>1</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="16">
         <v>375</v>
       </c>
